--- a/Paper_tables.xlsx
+++ b/Paper_tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aju\Dropbox\H2paper\calcs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Dropbox\H2paper\calcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4A4384B2-B2A1-4867-8365-3E47DD83B655}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3F749E0B-0F2A-4B96-A98E-7CC82E8F712D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sourcedat" sheetId="1" r:id="rId1"/>
@@ -2851,6 +2851,12 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2871,12 +2877,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4011,8 +4011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC42" sqref="AC42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5202,8 +5202,8 @@
         <v>1.8089999999999998E-2</v>
       </c>
       <c r="D33" s="25">
-        <f>VLOOKUP($P33,sourcedat!$B$23:$F$24,4,0)*(SUM($B33,C33))*D3</f>
-        <v>2.6329682971746005</v>
+        <f>VLOOKUP($P33,sourcedat!$B$23:$F$24,4,0)*D3</f>
+        <v>0.53975393999999999</v>
       </c>
       <c r="E33" s="25">
         <f>VLOOKUP($P33,sourcedat!$B$28:$E$29,4,0)*E3</f>
@@ -5232,7 +5232,7 @@
       <c r="K33" s="27"/>
       <c r="L33" s="75">
         <f t="shared" ref="L33" si="4">SUM(B33:J33)</f>
-        <v>8.0584124710879994</v>
+        <v>5.9651981139133978</v>
       </c>
       <c r="N33" s="76" t="str">
         <f t="shared" ref="N33:S33" si="5">N3</f>
@@ -5279,8 +5279,8 @@
         <v>1.4571063829787232</v>
       </c>
       <c r="D34" s="32">
-        <f>VLOOKUP($P34,sourcedat!$B$23:$F$24,4,0)*(SUM($B34,C34))*D4</f>
-        <v>0.71687104791661116</v>
+        <f>VLOOKUP($P34,sourcedat!$B$23:$F$24,4,0)*D4</f>
+        <v>0.34759695000000002</v>
       </c>
       <c r="E34" s="31">
         <f>VLOOKUP($P34,sourcedat!$B$28:$E$29,4,0)*E4</f>
@@ -5309,7 +5309,7 @@
       <c r="K34" s="33"/>
       <c r="L34" s="37">
         <f t="shared" ref="L34:L41" si="6">SUM(B34:J34)</f>
-        <v>3.1377116274695287</v>
+        <v>2.7684375295529171</v>
       </c>
       <c r="N34" s="76" t="str">
         <f t="shared" ref="N34:S34" si="7">N5</f>
@@ -5350,8 +5350,8 @@
         <v>0.23870493405275783</v>
       </c>
       <c r="D35" s="32">
-        <f>VLOOKUP($P35,sourcedat!$B$23:$F$24,4,0)*(SUM($B35,C35))*D5</f>
-        <v>5.4299160018703441E-2</v>
+        <f>VLOOKUP($P35,sourcedat!$B$23:$F$24,4,0)*D5</f>
+        <v>6.4338437549160674E-2</v>
       </c>
       <c r="E35" s="31">
         <f>VLOOKUP($P35,sourcedat!$B$28:$E$29,4,0)*E5</f>
@@ -5380,7 +5380,7 @@
       <c r="K35" s="33"/>
       <c r="L35" s="37">
         <f t="shared" si="6"/>
-        <v>1.4338640150558586</v>
+        <v>1.4439032925863158</v>
       </c>
       <c r="N35" s="76" t="str">
         <f t="shared" ref="N35:S35" si="8">N4</f>
@@ -5421,8 +5421,8 @@
         <v>1.8089999999999998E-2</v>
       </c>
       <c r="D36" s="31">
-        <f>VLOOKUP($P36,sourcedat!$B$23:$F$24,4,0)*(SUM($B36,C36))*D6</f>
-        <v>4.6108720745999992E-3</v>
+        <f>VLOOKUP($P36,sourcedat!$B$23:$F$24,4,0)*D6</f>
+        <v>6.3959939999999993E-2</v>
       </c>
       <c r="E36" s="31">
         <f>VLOOKUP($P36,sourcedat!$B$28:$E$29,4,0)*E6</f>
@@ -5451,7 +5451,7 @@
       <c r="K36" s="33"/>
       <c r="L36" s="37">
         <f t="shared" si="6"/>
-        <v>0.14164652565987262</v>
+        <v>0.20099559358527264</v>
       </c>
       <c r="N36" s="76" t="str">
         <f t="shared" ref="N36:S38" si="9">N6</f>
@@ -5492,8 +5492,8 @@
         <v>6.1694582767466463E-4</v>
       </c>
       <c r="D37" s="41">
-        <f>VLOOKUP($P37,sourcedat!$B$23:$F$24,4,0)*(SUM($B37,C37))*D7</f>
-        <v>1.7319662972572446E-3</v>
+        <f>VLOOKUP($P37,sourcedat!$B$23:$F$24,4,0)*D7</f>
+        <v>3.1711152482269508E-2</v>
       </c>
       <c r="E37" s="40">
         <f>VLOOKUP($P37,sourcedat!$B$28:$E$29,4,0)*E7</f>
@@ -5522,7 +5522,7 @@
       <c r="K37" s="42"/>
       <c r="L37" s="43">
         <f t="shared" si="6"/>
-        <v>9.7364135301636789E-2</v>
+        <v>0.12734332148664906</v>
       </c>
       <c r="N37" s="76" t="str">
         <f t="shared" si="9"/>
@@ -5563,8 +5563,8 @@
         <v>7.1982571299230424E-3</v>
       </c>
       <c r="D38" s="210">
-        <f>VLOOKUP($P38,sourcedat!$B$23:$F$24,4,0)*(SUM($B38,C38))*D8</f>
-        <v>3.4054687925486168E-4</v>
+        <f>VLOOKUP($P38,sourcedat!$B$23:$F$24,4,0)*D8</f>
+        <v>3.1020122340425532E-2</v>
       </c>
       <c r="E38" s="211">
         <f>VLOOKUP($P38,sourcedat!$B$28:$E$29,4,0)*E8</f>
@@ -5593,7 +5593,7 @@
       <c r="K38" s="212"/>
       <c r="L38" s="213">
         <f t="shared" ref="L38" si="10">SUM(B38:J38)</f>
-        <v>5.1515927185882805E-2</v>
+        <v>8.219550264705347E-2</v>
       </c>
       <c r="N38" s="76" t="str">
         <f t="shared" si="9"/>
@@ -5634,8 +5634,8 @@
         <v>7.1982571299230424E-3</v>
       </c>
       <c r="D39" s="32">
-        <f>VLOOKUP($P39,sourcedat!$B$23:$F$24,4,0)*(SUM($B39,C39))*D9</f>
-        <v>1.6932049389900361E-3</v>
+        <f>VLOOKUP($P39,sourcedat!$B$23:$F$24,4,0)*D9</f>
+        <v>3.0345122340425534E-2</v>
       </c>
       <c r="E39" s="31">
         <f>VLOOKUP($P39,sourcedat!$B$28:$E$29,4,0)*E9</f>
@@ -5664,7 +5664,7 @@
       <c r="K39" s="33"/>
       <c r="L39" s="37">
         <f t="shared" si="6"/>
-        <v>9.7006835245617984E-2</v>
+        <v>0.12565875264705351</v>
       </c>
       <c r="N39" s="76" t="str">
         <f t="shared" ref="N39:S41" si="12">N9</f>
@@ -5705,8 +5705,8 @@
         <v>7.1982571299230424E-3</v>
       </c>
       <c r="D40" s="32">
-        <f>VLOOKUP($P40,sourcedat!$B$23:$F$24,4,0)*(SUM($B40,C40))*D10</f>
-        <v>2.6608245235354883E-4</v>
+        <f>VLOOKUP($P40,sourcedat!$B$23:$F$24,4,0)*D10</f>
+        <v>2.9970122340425533E-2</v>
       </c>
       <c r="E40" s="31">
         <f>VLOOKUP($P40,sourcedat!$B$28:$E$29,4,0)*E10</f>
@@ -5735,7 +5735,7 @@
       <c r="K40" s="33"/>
       <c r="L40" s="37">
         <f t="shared" si="6"/>
-        <v>4.8280962758981492E-2</v>
+        <v>7.7985002647053464E-2</v>
       </c>
       <c r="N40" s="76" t="str">
         <f t="shared" si="12"/>
@@ -5776,8 +5776,8 @@
         <v>7.1982571299230424E-3</v>
       </c>
       <c r="D41" s="48">
-        <f>VLOOKUP($P41,sourcedat!$B$23:$F$24,4,0)*(SUM($B41,C41))*D11</f>
-        <v>9.3665406473035467E-7</v>
+        <f>VLOOKUP($P41,sourcedat!$B$23:$F$24,4,0)*D11</f>
+        <v>1.3012234042553139E-4</v>
       </c>
       <c r="E41" s="47">
         <f>VLOOKUP($P41,sourcedat!$B$28:$E$29,4,0)*E11</f>
@@ -5806,7 +5806,7 @@
       <c r="K41" s="49"/>
       <c r="L41" s="77">
         <f t="shared" si="6"/>
-        <v>1.6327539301118202E-2</v>
+        <v>1.6456724987479004E-2</v>
       </c>
       <c r="N41" s="76" t="str">
         <f t="shared" si="12"/>
@@ -5909,8 +5909,8 @@
         <v>6.0300000000000006E-3</v>
       </c>
       <c r="D46" s="25">
-        <f>VLOOKUP($P46,sourcedat!$B$23:$F$24,5,0)*(SUM($B46,C46))*D3</f>
-        <v>3.2547162582000004E-3</v>
+        <f>VLOOKUP($P46,sourcedat!$B$23:$F$24,5,0)*D3</f>
+        <v>0.53975393999999999</v>
       </c>
       <c r="E46" s="25">
         <f>VLOOKUP($P46,sourcedat!$B$28:$F$29,5,0)*E3</f>
@@ -5939,7 +5939,7 @@
       <c r="K46" s="27"/>
       <c r="L46" s="75">
         <f t="shared" ref="L46" si="13">SUM(B46:J46)</f>
-        <v>0.55559552198555107</v>
+        <v>1.0920947457273511</v>
       </c>
       <c r="N46" s="78" t="str">
         <f t="shared" ref="N46:S46" si="14">N3</f>
@@ -5980,7 +5980,7 @@
         <v>1.4571063829787232</v>
       </c>
       <c r="D47" s="32">
-        <f>VLOOKUP($P47,sourcedat!$B$23:$F$24,5,0)*(SUM($B47,C47))*D4</f>
+        <f>VLOOKUP($P47,sourcedat!$B$23:$F$24,5,0)*D4</f>
         <v>0</v>
       </c>
       <c r="E47" s="31">
@@ -6051,8 +6051,8 @@
         <v>7.9568311350919296E-2</v>
       </c>
       <c r="D48" s="32">
-        <f>VLOOKUP($P48,sourcedat!$B$23:$F$24,5,0)*(SUM($B48,C48))*D5</f>
-        <v>4.4060558357216853E-2</v>
+        <f>VLOOKUP($P48,sourcedat!$B$23:$F$24,5,0)*D5</f>
+        <v>6.4338437549160674E-2</v>
       </c>
       <c r="E48" s="31">
         <f>VLOOKUP($P48,sourcedat!$B$28:$F$29,5,0)*E5</f>
@@ -6081,7 +6081,7 @@
       <c r="K48" s="33"/>
       <c r="L48" s="37">
         <f t="shared" si="15"/>
-        <v>0.79211387684637946</v>
+        <v>0.81239175603832325</v>
       </c>
       <c r="N48" s="78" t="str">
         <f t="shared" ref="N48:S48" si="17">N4</f>
@@ -6122,8 +6122,8 @@
         <v>6.0300000000000006E-3</v>
       </c>
       <c r="D49" s="31">
-        <f>VLOOKUP($P49,sourcedat!$B$23:$F$24,5,0)*(SUM($B49,C49))*D6</f>
-        <v>3.8395151981999993E-3</v>
+        <f>VLOOKUP($P49,sourcedat!$B$23:$F$24,5,0)*D6</f>
+        <v>6.3959939999999993E-2</v>
       </c>
       <c r="E49" s="31">
         <f>VLOOKUP($P49,sourcedat!$B$28:$F$29,5,0)*E6</f>
@@ -6152,7 +6152,7 @@
       <c r="K49" s="33"/>
       <c r="L49" s="37">
         <f t="shared" si="15"/>
-        <v>0.12777180059742613</v>
+        <v>0.18789222539922612</v>
       </c>
       <c r="N49" s="78" t="str">
         <f t="shared" ref="N49:S50" si="18">N6</f>
@@ -6193,7 +6193,7 @@
         <v>6.1694582767466463E-4</v>
       </c>
       <c r="D50" s="41">
-        <f>VLOOKUP($P50,sourcedat!$B$23:$F$24,5,0)*(SUM($B50,C50))*D7</f>
+        <f>VLOOKUP($P50,sourcedat!$B$23:$F$24,5,0)*D7</f>
         <v>0</v>
       </c>
       <c r="E50" s="40">
@@ -6264,7 +6264,7 @@
         <v>7.1982571299230424E-3</v>
       </c>
       <c r="D51" s="32">
-        <f>VLOOKUP($P51,sourcedat!$B$23:$F$24,5,0)*(SUM($B51,C51))*D8</f>
+        <f>VLOOKUP($P51,sourcedat!$B$23:$F$24,5,0)*D8</f>
         <v>0</v>
       </c>
       <c r="E51" s="31">
@@ -6335,7 +6335,7 @@
         <v>7.1982571299230424E-3</v>
       </c>
       <c r="D52" s="32">
-        <f>VLOOKUP($P52,sourcedat!$B$23:$F$24,5,0)*(SUM($B52,C52))*D9</f>
+        <f>VLOOKUP($P52,sourcedat!$B$23:$F$24,5,0)*D9</f>
         <v>0</v>
       </c>
       <c r="E52" s="31">
@@ -6406,7 +6406,7 @@
         <v>7.1982571299230424E-3</v>
       </c>
       <c r="D53" s="32">
-        <f>VLOOKUP($P53,sourcedat!$B$23:$F$24,5,0)*(SUM($B53,C53))*D10</f>
+        <f>VLOOKUP($P53,sourcedat!$B$23:$F$24,5,0)*D10</f>
         <v>0</v>
       </c>
       <c r="E53" s="31">
@@ -6477,7 +6477,7 @@
         <v>7.1982571299230424E-3</v>
       </c>
       <c r="D54" s="48">
-        <f>VLOOKUP($P54,sourcedat!$B$23:$F$24,5,0)*(SUM($B54,C54))*D11</f>
+        <f>VLOOKUP($P54,sourcedat!$B$23:$F$24,5,0)*D11</f>
         <v>0</v>
       </c>
       <c r="E54" s="47">
@@ -7888,12 +7888,12 @@
       <c r="G17" s="90"/>
       <c r="H17" s="91"/>
       <c r="I17" s="92"/>
-      <c r="J17" s="268" t="s">
+      <c r="J17" s="270" t="s">
         <v>147</v>
       </c>
-      <c r="K17" s="268"/>
-      <c r="L17" s="268"/>
-      <c r="M17" s="268"/>
+      <c r="K17" s="270"/>
+      <c r="L17" s="270"/>
+      <c r="M17" s="270"/>
       <c r="N17" s="89"/>
     </row>
     <row r="18" spans="7:14" ht="30" x14ac:dyDescent="0.25">
@@ -7940,11 +7940,11 @@
       <c r="G20" s="98"/>
       <c r="H20" s="99"/>
       <c r="I20" s="99"/>
-      <c r="J20" s="269" t="s">
+      <c r="J20" s="271" t="s">
         <v>156</v>
       </c>
-      <c r="K20" s="269"/>
-      <c r="L20" s="269"/>
+      <c r="K20" s="271"/>
+      <c r="L20" s="271"/>
       <c r="M20" s="102"/>
     </row>
     <row r="21" spans="7:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7969,7 +7969,7 @@
         <f t="shared" si="0"/>
         <v>12.10228</v>
       </c>
-      <c r="M21" s="270" t="s">
+      <c r="M21" s="272" t="s">
         <v>157</v>
       </c>
     </row>
@@ -7985,15 +7985,15 @@
         <f t="shared" si="0"/>
         <v>48.6</v>
       </c>
-      <c r="K22" s="275">
+      <c r="K22" s="268">
         <f t="shared" si="0"/>
         <v>0.53999999999999992</v>
       </c>
-      <c r="L22" s="275">
+      <c r="L22" s="268">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="M22" s="270"/>
+      <c r="M22" s="272"/>
     </row>
     <row r="23" spans="7:14" ht="30" x14ac:dyDescent="0.25">
       <c r="G23" s="103" t="s">
@@ -8007,15 +8007,15 @@
         <f t="shared" si="0"/>
         <v>34.020000000000003</v>
       </c>
-      <c r="K23" s="275">
+      <c r="K23" s="268">
         <f t="shared" si="0"/>
         <v>0.37799999999999995</v>
       </c>
-      <c r="L23" s="275">
+      <c r="L23" s="268">
         <f t="shared" si="0"/>
         <v>0.16800000000000001</v>
       </c>
-      <c r="M23" s="270"/>
+      <c r="M23" s="272"/>
     </row>
     <row r="24" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G24" s="108" t="s">
@@ -8031,15 +8031,15 @@
         <f t="shared" si="0"/>
         <v>21.87</v>
       </c>
-      <c r="K24" s="276">
+      <c r="K24" s="269">
         <f t="shared" si="0"/>
         <v>0.24299999999999999</v>
       </c>
-      <c r="L24" s="276">
+      <c r="L24" s="269">
         <f t="shared" si="0"/>
         <v>0.108</v>
       </c>
-      <c r="M24" s="270"/>
+      <c r="M24" s="272"/>
     </row>
     <row r="25" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G25" s="111" t="s">
@@ -8063,7 +8063,7 @@
         <f t="shared" si="0"/>
         <v>-5.8</v>
       </c>
-      <c r="M25" s="270"/>
+      <c r="M25" s="272"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10633,22 +10633,22 @@
       <c r="P22" s="166" t="s">
         <v>256</v>
       </c>
-      <c r="R22" s="271" t="s">
+      <c r="R22" s="273" t="s">
         <v>257</v>
       </c>
-      <c r="S22" s="271"/>
-      <c r="T22" s="271"/>
-      <c r="U22" s="271"/>
-      <c r="W22" s="272" t="s">
+      <c r="S22" s="273"/>
+      <c r="T22" s="273"/>
+      <c r="U22" s="273"/>
+      <c r="W22" s="274" t="s">
         <v>257</v>
       </c>
-      <c r="X22" s="272"/>
-      <c r="Y22" s="272"/>
-      <c r="Z22" s="272"/>
-      <c r="AB22" s="272" t="s">
+      <c r="X22" s="274"/>
+      <c r="Y22" s="274"/>
+      <c r="Z22" s="274"/>
+      <c r="AB22" s="274" t="s">
         <v>94</v>
       </c>
-      <c r="AC22" s="272"/>
+      <c r="AC22" s="274"/>
     </row>
     <row r="23" spans="10:32" x14ac:dyDescent="0.25">
       <c r="P23" s="167"/>
@@ -10853,18 +10853,18 @@
       </c>
     </row>
     <row r="29" spans="10:32" x14ac:dyDescent="0.25">
-      <c r="R29" s="273" t="s">
+      <c r="R29" s="275" t="s">
         <v>266</v>
       </c>
-      <c r="S29" s="273"/>
-      <c r="T29" s="273"/>
-      <c r="U29" s="273"/>
-      <c r="W29" s="274" t="s">
+      <c r="S29" s="275"/>
+      <c r="T29" s="275"/>
+      <c r="U29" s="275"/>
+      <c r="W29" s="276" t="s">
         <v>267</v>
       </c>
-      <c r="X29" s="274"/>
-      <c r="Y29" s="274"/>
-      <c r="Z29" s="274"/>
+      <c r="X29" s="276"/>
+      <c r="Y29" s="276"/>
+      <c r="Z29" s="276"/>
       <c r="AB29" s="188" t="s">
         <v>268</v>
       </c>
@@ -11908,7 +11908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
